--- a/practice/Crawl/ltn_society.xlsx
+++ b/practice/Crawl/ltn_society.xlsx
@@ -386,22 +386,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>「國道騎人節」超扯！2駕駛內側車道壓地互毆 網友傻眼</t>
+          <t>遭爆瞞孕妻偷吃 彰縣議員出面：喝多遭朋友惡搞</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2019-08-07 19:01</t>
+          <t>2019-08-08 11:40</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">網友拍下國道行車糾紛兩駕駛車停內側壓地狂打畫面。（取材自臉書「爆料公社」）
-〔記者李容萍／桃園報導〕臉書社團「爆料公社」有網友PO了一段約12秒長的影片，指出今天下午開車經過國道三號大溪、龍潭路段時，直擊看到內側車道停著兩輛車，有2人趴跪在地上、手腳盡出，引起網友熱議，大罵太扯了、真的是不要命，有網友看了影片一頭霧水、不知在演哪齣？以為兩人正在進行急救，也有網友質疑這是應景的「國道騎人節」、安捏母湯！
-國道公路警察局第六公路警察大隊傍晚說明，國道警察於今日下午3時20分獲報，國道三號南向64.5公里處發生行車糾紛，兩駕駛人於內側車道扭打，即派遣巡邏車前往查處；為避免紛爭情事擴大，員警於6分鐘後火速抵達現場，制止雙方衝突，經聯絡救護車將41歲受傷的駕駛人送醫治療，在場另一名38歲的駕駛也被帶回調查偵辦中，現場狀況於下午3時45排除。
-經查，兩車駕駛因超車糾紛，引發攔車互毆事件。警方提醒駕駛人，遇有行車糾紛或惡意逼車情形，宜以行車紀錄器記錄，提供影像資料向警方報案，切勿任意攔車或停於車道，造成自己與他人危險，依據道路交通管理處罰條例43條第1項第3款及第4款規定「任意以迫近、驟然變換車道或其他不當方式，迫使他車讓道。非遇突發狀況，在行駛途中任意驟然減速、煞車或於車道中暫停」處6000元以上2萬4000元罰鍰。另可涉刑法第304條強制罪，有3年以下有期徒刑規定，請用路人勿一時衝動觸法。
-網友拍下國道行車糾紛兩駕駛車停內側壓地狂打畫面。（取材自臉書「爆料公社」）
-國道行車糾紛兩駕駛車停內側壓地狂打，國道警察到場制止並帶回偵辦。（記者李容萍翻攝）
+          <t xml:space="preserve">縣議員洪柏葳今天上午出面澄清說明網路PO文緣由。（記者張聰秋攝）
+〔記者張聰秋／彰化報導〕彰化縣無黨籍議員洪柏葳遭爆料趁老婆懷孕時，於昨天七夕情人節在外劈腿搞小三，甚至被PO出洪與該名女子狀似親暱的照片，此事在網路傳開後引發熱議，並有大批網友跑到洪的臉書洗版砲轟，妻子挺肚負氣離家。
+今天上午11點洪柏葳出面受訪澄清，他說，8月6日他到南部跟朋友討論要開公司的細節，當天去朋友招待所第一次遇到一群朋友，他先前也不認識那名女生，自己在場喝多了，朋友惡搞瞎起鬨，在他的臉書打字PO文「我愛你！情人節快樂！」他醒來後立即撤文，他是公眾人物對於自己行為欠缺檢點，這點他會檢討，造成社會不好觀感和家人困擾。
+洪柏葳說，他跟妻子結婚2年多，此事發生之前，雙方上週談過協議離婚，感情私領域希望外界給他一點空間，「家務事讓我自己處理就好！」
+有網友自稱是彰化縣議員洪柏葳妻子的妹妹，在《爆料公社》PO文爆料指控，洪疑似趁老婆懷孕8個月的時候在外面搞小三，昨天七夕情人節時甚至PO出兩人親親照片高調示愛。
+據網友PO文內容指出，洪對此辯稱該名女子是傳播妹，並指是「喝醉手機被朋友拿去亂用，那女孩我不認識，已經刪除了！」但妻子並不採信洪的說詞，並質疑「到底是什麼朋友能起鬨要求親她？」「到底是什麼關係可以輕易拿到手機在臉書跟微信貼文？」且洪還丟下一句「抓姦要在床」、「妳不信我能怎樣」等，讓妻子直呼「我替我的孩子（感到）真的很難過，快出生了卻發現自己的爸爸做這種事！」
+30歲的洪柏葳帥氣長相，有過一段婚姻，與前妻生有1子，離婚後再娶現任妻子，妻子目前懷胎8個月，他的爸爸曾任彰化市民代表，他追隨爸爸從政之路，做過1屆市民代表，去年從市代轉換跑道，以無黨籍身分角逐縣議員寶座成功，是彰化縣議會新生代議員，活躍於社團、宮廟和和社區活動，深耕基層。
 </t>
         </is>
       </c>
@@ -409,23 +410,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PO光頭佬對酒女揩油照影射蘇揆 韓粉到案說明</t>
+          <t>地震導致組合衣架砸頭 婦人疑遭衣服蓋臉窒息亡</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2019-08-07 18:59</t>
+          <t>2019-08-08 11:20</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔記者邱俊福／台北報導〕五十四歲陳姓韓粉，上月底在個人臉書PO了一張禿頭男子對酒女上下其手的舊照片與行政院長蘇貞昌受訪的電視畫面，影射蘇揆言行不一致，經民眾向刑事局檢舉後，刑事局偵二大隊第一隊依規定受理，今通知陳某到案說明，訊後將移管轄地台北市警局依社會秩序維護法函送台北地院簡易庭裁處。
-警方調查，該張舊照片在今年一月份就有人PO網，直指照片內的禿頭男子是行政院長蘇貞昌，當時剛接任閣揆的蘇貞昌，為此還特地在臉書發文表示，一接閣揆就看到網路上有人在毀謗他，發假消息說他抱小姐，讓他搞笑要請網友幫忙向老婆詹秀齡澄清，還強調「唯一支持詹秀齡」。
-上月卅日，陳某聲稱看到蘇揆接受記者訪問，稱韓國瑜有江湖味和酒味，便攫取這張網路的舊照片，以及蘇揆接受訪問的電視畫面，PO在臉書，並PO文指「這個光頭蘇一直說韓先生講話江湖味，開口就是酒味！但還沒有人看過一張韓先生不得體的相片，是吧！」，並指「這張相片，這個光頭佬，熟門熟路，右手抹胸，左手摸臀的到底是誰呢？....言行不一的爛傢伙！」。
-隔日，刑事局接獲民眾報案，經追查，今天通知陳某到案說明，而陳某於接獲警方到案通知書後，便將通知書PO在臉書，也解釋自己用了另一個「光頭佬」對酒醉女子上下其手，手腳不乾淨，來反諷說明他們的人，手腳也真的不乾淨，還有照片流出。
-陳某並強調，自己明明是在敘述「兩件事實」，竟可以用「網路謠言」偵辦，以此表達不滿。
-陳姓韓粉PO光頭佬對酒女上下其手照片影射蘇揆（記者邱俊福翻攝自臉書）
-韓粉PO光頭佬對酒女上下其手照片影射蘇揆。（記者邱俊福翻攝自臉書）
+          <t xml:space="preserve">呂女與丈夫在中和經營國術館，住家也在同一處。（記者徐聖倫攝）
+〔記者徐聖倫／新北報導〕今日清晨5時28分宜蘭外海發生芮氏規模6.0強震，而新北市中和區64歲呂姓婦人被自家掉落的衣架砸中，而衣架加上衣服的重量破百公斤，呂女被發現時已失去生命徵象，送醫急救仍不治。警方研判，呂婦身上沒有特別的傷勢，初步看來是被砸昏後衣架上大量的衣服掩蓋住呂婦臉部，導致其窒息而死。
+據了解，呂婦與70歲丈夫蘇姓男子在中和新生街開設國術館約30年，夫妻倆的住處也在館內。呂婦與丈夫分房睡已久，而呂婦就睡在「鐵力士」組合衣架旁，不料，鐵力士衣架也耐不住地震搖晃，當下立刻倒塌，不偏不以砸中呂女的臉，待蘇男於上午近8時發現時，呂女已氣絕多時。
+呂女被砸中面部後昏厥，而衣架上有一大堆衣服也隨著衣架掉落，這些衣服掩蓋住昏厥呂女的面部，呂女口、鼻完全無法呼吸，疑似就這樣窒息而死。據研判，在呂女身上除了臉部有鐵力士的壓痕，其他地方則毫髮未傷，應是窒息導致呂女昏厥不治。
+呂女的鄰居說，他們夫妻倆開國術館在中和超過30年，平時呂女的生活作息正常，健康狀態也都正常，想不到竟然會因為這種意外而撒手人寰。
+死者呂女的丈夫向警方解釋情況。（記者徐聖倫攝）
 </t>
         </is>
       </c>
@@ -433,27 +433,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>畫面變黑錢就不見！ 土地公廟扮柯南裝針孔抓「鬼」</t>
+          <t>愛犬亂跑撞死騎士 狗飼主被依過失致死罪起訴</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2019-08-07 18:44</t>
+          <t>2019-08-08 11:01</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">竊賊拿起濕抹布，準備將監視器蓋上，防止行被拍。（翻攝畫面）
-〔記者陳冠備／彰化報導〕彰化縣北斗鎮大新里福門宮近日頻傳香油錢失竊，廟方調閱監視器畫面發現，每到深夜畫面經常突然變黑，隔日再檢查香油錢就不見了，一個月來遭竊17次，廟方被偷到怕了，只好在神明前方加裝針孔，終於拍到2名竊嫌用抹布蓋住監視器再行竊的證據，報警抓人。福門宮主委葉首彣說，以為是好兄弟出沒，沒想到是小偷橫行，人比鬼卡恐怖！
-葉首彣說，福門宮創廟百年，主侍福德正神，是地方重要信仰，平時香火鼎盛，廟方則利用香客捐贈香油錢拿來添購金紙、廟宇使用水電費與廟公薪水，但從上個月起，保險箱裡香油錢經常短少，且對準保險箱的監視器被用抹布蓋住，還會沾濕再蓋上，防止滑落，顯然竊賊有心掩飾犯行。
-葉首彣說，這半年，廟方曾發現保險箱裡偶有遭竊跡象，由於損失金額不大，認為是土地公大方施捨，但這一個月來被偷了17次，不分日、夜，連農曆七月到了也來偷，簡直把土地公當提款機，只好再另裝針孔拍攝，果然拍到2名竊賊犯行，一個把風，一個行竊，偷完還會跟土地公上香，有次偷到一半，遇到廟公走進來才收手，「比夾娃娃高手還會夾」，認為竊賊行徑太囂張，決定報警。
-北斗警分局說，獲報後掌握游姓（50歲）、陳姓（49歲）2名男子犯行可疑，陳男到案時坦承，2人因缺錢花用，才共乘機車到土地公廟偷竊，用釣魚線黏住雙面膠，再伸入保險箱，以釣魚方式將香油錢黏上來。警方說，目前游男尚未到案，兩人筆錄製作完畢後將依竊盜罪嫌移送法辦。
-針孔攝影機拍到竊賊拿著抹布蓋監視器。（翻攝畫面）
-福門宮主委葉首彣說，竊賊用濕抹布改住監視器再行竊。（記者陳冠備攝）
-福門宮主委葉首彣說，保險箱內香油錢經常不翼而飛，直到裝了針孔，才拍下竊賊犯行。（記者陳冠備攝）
-竊賊行竊後還會跟土地公上香。（記翻攝畫面）
-針孔拍攝到竊賊正利用釣魚方式行竊，廟公（後方藍衣者）正好進來。（翻攝畫面）
-小偷將抹布蓋上，讓監視器畫面變黑拍不到。（翻攝畫面）
+          <t xml:space="preserve">〔記者李立法／屏東報導〕張姓男子飼養的虎斑狗跑到馬路上與陳姓女機車騎士發生碰撞，造成陳婦摔車重創送醫不治，闖禍虎斑狗的張姓飼主被檢方依過失致死罪起訴，法官念在張男與死者家屬達成和解，予以緩刑機會。
+去年11月間，張男飼養的虎斑狗跑出屋外在馬路上與騎機車的陳姓婦人發生碰撞，陳婦失控摔車，導致顱內出血，經送醫搶救仍宣告不治，肇事元凶雖為虎班狗，但張姓飼主未以項圈繫緊及妥善管束愛犬，也要負起責任，檢方偵辦後，依過失致死罪將張男提起公訴。
+張男對於愛犬造成陳婦摔車致死深表歉意，屏東地院法官審理後，認為張男坦承犯行且具悔意，並與死者家屬達成和解，依過致失致死罪判刑4個月，得易科罰金，緩刑2年，可上訴。
+家犬若跑到馬路上造成交通事故，飼主也要負起責任。
+示意照，與本新聞事件無關。（資料照）
 </t>
         </is>
       </c>
@@ -461,23 +455,20 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>驚！住家鑰匙放信箱 疑遭取走複製</t>
+          <t>塗鴉客深夜街頭搞怪 警按圖索驥逮人</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2019-08-07 18:39</t>
+          <t>2019-08-08 10:59</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔記者洪定宏／高雄報導〕在外租屋的某高中男生，平時將鑰匙放在信箱，方便拿取，日前覺得鑰匙疑似被調包，擔心住處被侵入而報警。
-警方調查，住處沒有被侵入跡象，也無財物遭竊，但為求安全起見，協調房東更換新門鎖，讓高中生安心，也調閱監視器過濾，釐清有無被複製。
-警方提醒民眾，切勿貪圖方便而把住家鑰匙藏在屋外花盆、信箱、腳踏墊等自以為隱密的地方，因為可能一不小心，被宵小發現而取得，入屋行竊。
-高雄市林園分局大寮分駐所於8月6日下午約4點獲報，指大寮區鳳林三路某公寓，一名高中生租屋處的鑰匙疑似遭人調包。
-巡佐蔡志銘到場了解，原來高中生將鑰匙放在信箱，方便拿取，當天返家，覺得鑰匙怪怪的，跟平日的不同，懷疑遭人拿去複製，卻放新鑰匙，拿走舊鑰匙。
-蔡志銘陪同高中生入屋查看，未發現被侵入或遭竊取財物的跡象，但因高中生仍心生恐懼，就協調房東換新鎖，讓高中生安心。
-高中生將鑰匙放在信箱，疑遭竊賊取走複製調包。（記者洪定宏翻攝）
+          <t xml:space="preserve">〔記者邱俊福／台北報導〕北市警局文山第二分局萬盛派出所日前接獲民眾報案，轄內店家鐵門、圍牆經常於夜間遭不詳人士噴漆塗鴉作畫，嚴重影響店家門面，並造成周遭住戶環境整潔，警方據報經擴大調閱周邊監視器影像，並比對塗鴉內容後，循線掌握24歲徐姓男子，上月經通知到案，依違反社會秩序維護法裁罰3000元。
+徐男到案時表示，他對街頭塗鴉藝術很有興趣，趁夜半時分「作畫」。警方經告知徐男，隨意噴漆塗鴉畫布的行為，已經觸法後，徐男聞訊深感悔意，表示不會再犯。
+警方提醒，民眾隨意街頭塗鴉、破壞市容環境，已違反社會秩序維護法或廢棄物清理法，呼籲有塗鴉需求的民眾，可前往北市合法開放塗鴉區域進行創作。目前景美地區開放塗鴉處計2處：福和橋約360平方公尺（由景美2號疏散門進入）、景美約200平方公尺（北新橋下涵洞牆面），開放民眾合法塗鴉。
+塗鴉客深夜街頭搞怪，警按圖索驥逮人（記者邱俊福翻攝）
 </t>
         </is>
       </c>
@@ -485,21 +476,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>男獨攀塔曼山迷路 警教手機定位即刻救援</t>
+          <t>急診室旁巷道赫見垃圾袋裝嬰屍 警調監視器追查</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2019-08-07 18:21</t>
+          <t>2019-08-08 10:56</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔記者李容萍／桃園報導〕桃園市中壢區53歲陳姓男子，6日上午9點從復興區華陵里塔曼山登山口出發，挑戰塔曼山，下午3點30分左右下山返程時，因對山區路況不熟，迷失方向，又不慎滑落邊坡，造成右手臂輕微擦傷，報案請求警方協助。警方立即派遣警力並通報巴陵消防分隊支援協助，一行7人上山搜救，歷經3小時餘終於尋獲陳男，安全帶領下山。
-大溪警分局說，陳男昨天獨自一人到復興區塔曼山登山健走，於回程時迷失方向，巴陵派出所獲報初步聯繫後，確認陳男當下安全，指導他開啟手機定位功能後，用手機LINE回傳位置，及拍照回傳所在地點相片，請陳男於原地等候，搜救隊伍於下午4點30分出發搜救，晚上7點50分順利找到陳男，在警方領路下安全到達巴陵派出所休息後返家。
-陳男告訴警方，平時喜好登山，自認塔曼山不是難度太高的山，於是獨自一人前往，但因路況不熟迷失方向報警求救。對此，警方呼籲，山上天候瞬息萬變，入夜後經常氣溫驟降或陰雨綿綿，近日颱風來襲，天候不良應避免從事登山活動，避免發生登山迷途意外，從事登山活動一定要結伴而行，衡量自身體能狀態，同行山友要隨時注意同行避免脫隊走失。
-陳男獨攀塔曼山迷途，警教導手機定位即刻救援。（記者李容萍翻攝）
-陳男獨攀塔曼山迷途，警教導手機定位即刻救援。（記者李容萍翻攝）
+          <t xml:space="preserve">醫院旁巷道驚見嬰屍，鑑識人員採證。（記者邱俊福攝）
+〔記者邱俊福／台北報導〕今天父親節，卻發生嬰屍遭棄置悲劇！清晨6時許，一名婦人路過台北市仁愛醫院旁巷弄，發現路邊有嬰屍被放在一只新北市垃圾袋內，嚇得趕緊向一旁醫院駐衛警反映通報轄區北市警大安分局，經封鎖現場初步勘查，嬰屍呈蜷曲狀、無明顯外傷，尚無法辨識性別，已經移送第二殯儀館待檢方相驗。
+警方調查，該巷道平時會有附近住戶放置大型垃圾袋等待清運，該裝嬰屍的垃圾袋就放在一只裝垃圾的大型塑膠袋旁。由於巷道旁就是醫院的急診室，救護車輛進進出出，警方經初步詢問急診室人員，並無有婦人生產狀況，因此目前正擴大調閱監視器追查中。
+今天清晨6時許，有名婦人路過台北市仁愛醫院急診室旁巷弄，發現該放有嬰屍的垃圾袋，嚇得趕緊向醫院駐衛警反映，駐衛警據報前往查看後，馬上通報轄區警方。
+警方據報立即封鎖現場，並通報台北市警局鑑識中心人員前往採證，隨後將嬰屍送往第二殯儀館，目前警方除積極調閱監視器追查可疑人士，也報請檢方相驗死因。
+醫院旁巷道驚見嬰屍，鑑識人員採證後將嬰屍移置殯儀館等待檢方相驗死因。（記者邱俊福翻攝）
 </t>
         </is>
       </c>
@@ -507,20 +499,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>運鈔車路口翻覆有大量現金 保全與警一旁高度警戒</t>
+          <t>被控她月經來潮還硬上 男子否認不起訴</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2019-08-07 18:00</t>
+          <t>2019-08-08 10:51</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">保全公司運鈔箱型車發生車禍翻覆，保全員在一旁高度警戒。（記者周敏鴻翻攝）
-〔記者周敏鴻／桃園報導〕賴姓保全員下午3點多駕駛保全公司箱型車運鈔行經桃園市桃園區博愛路時，與自小客車發生碰撞車禍，保全公司箱型車翻覆，擋住單行道成為大路障，因箱型車內有許多現金，保全員不敢大意，與員警始終在一旁高度緊戒。
-由賴姓保全員等兩人負責的保全公司箱型車，下午3點多行經桃園區博愛路時，在民權路口與楊姓男子駕駛的自小客車發生碰撞，箱型車因重心較高，碰撞後翻覆，還好2車3人都沒受傷。
-箱型車內有多少現金，賴姓保全員不願透露，報警處理後，他與另名保全員就緊緊盯著翻覆的箱型車，直到保全公司派員前來協助，警方說，賴姓保全員與楊男都沒酒駕，將進一步釐清肇事責任。
+          <t xml:space="preserve">〔記者周敏鴻／桃園報導〕桃園市A女指控陳姓男子涉嫌從去年10月到年底，與她發生2次性關係，當時她未滿16歲，陳男坦承今年曾與A女發生過一次性關係，但因A女是「元旦寶寶」，他確認她已滿16歲，桃園地檢署今天偵結，已予陳男涉嫌妨害性自主案件不起訴處分。
+A女說，她與陳男（24歲）於去年10月中旬，透過網路交友程式結識，之後2人相約聚餐，餐後陳男將她帶回租屋處，不顧她月經來潮與推拒，對她強制性交得逞。
+1個多月後，兩人再度相約見面，A女說，陳男又對她強制性交，因她覺得「已經都發生了」，就未曾對朋友說起。
+陳男到案時，坦承曾於今年年初與A女發生性關係，因兩人聊天時，他早已知道對方的生日是元旦，並於今年1月1日就滿16歲，他才與對方發生性關係。
+檢方說，陳男在A女滿16歲後，與她合意性交，並未違法。而A女指控陳男在她未滿16歲前，2度對她強制性交，除了A女的供述外，並沒有其他積極證據，難以認定陳男涉嫌妨害性自主，今天偵結，已予陳男不起訴處分。
+示意圖。
 </t>
         </is>
       </c>
@@ -528,22 +522,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>重機騎士蘇花超車遇過彎 命喪曳引車輪下</t>
+          <t>悲傷父親節！基隆停車場男子墜樓亡 獨留1歲稚子在車上</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2019-08-07 17:59</t>
+          <t>2019-08-08 10:42</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">台9線蘇花公路今天下午發生1起死亡車禍，新北市18歲陳姓重機騎士疑因超車不慎命喪輪下。（記者王峻祺翻攝）
-〔記者王峻祺／花蓮報導〕台9線蘇花公路今天下午發生一起死亡車禍，新北市18歲陳姓重機騎士在下午近1點行經蘇花174公里處北上路段時，自右側超越前方同行曳引車，疑因遇到過彎加上超車不慎，當場被捲入車底，造成鼠蹊部及右腳骨折，經救護車送往國軍花蓮總醫院急救，仍因傷重不幸於下午2點50分不治身亡。
-據了解，陳姓騎士與友人各騎一部重機到花蓮玩，今天中午返回新北，行經台9線174公里處北上路段時，2人發現前方有一輛曳引車，友人先行超車成功，緊接著陳姓騎士跟進，不料卻恰巧遇上轉彎，導致車道瞬間縮小，疑因重心不穩，人當場被捲入車底。
-陳姓騎士隨後被送往國軍花蓮總醫院急救，仍因傷重宣告不治；肇事的林姓曳引車駕駛酒測值為0，詳細車禍原因尚待警方釐清。
-陳姓騎士所騎乘的重機。（記者王峻祺翻攝）
-陳姓騎士被捲入車底。（記者王峻祺翻攝）
+          <t xml:space="preserve">〔記者林嘉東／基隆報導〕悲傷父親節！基隆市信二路停車場今天驚傳一名鄧姓男子墜樓，警消逐樓清查發現13樓有一輛還在發動中的汽車，車內有一名1歲男童，懷疑鄧撇下男童後墜樓。
+警方調查，墜樓的35歲鄧姓男子，今天上午8點40分開車進入信二路停車場，後開上停車場13樓，9點11分就發生墜樓意外。
+警方指出，鄧與妻子婚後生下一對龍鳳胎，鄧只載男童出門，男孩由母親在帶，至於鄧墜樓原因正由警方調查中。
+鄧姓男子開車載兒子至基隆市信二路停車場後，把小孩留在車上，自13樓墜樓亡。（記者林嘉東翻攝）
+鄧姓男子把車子停在基隆市信二路停車場13樓墜樓，圖為鑑識人員勘驗現場。（記者林嘉東攝）
+鄧姓男子把車子停在基隆市信二路停車場13樓，獨留還在吃奶嘴的1歲兒子在車上，市府社工人員已先安置男童。（記者林嘉東翻攝）
 </t>
         </is>
       </c>
@@ -551,23 +545,23 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>共同打擊犯罪！台灣與諾魯簽署刑事司法互助條約</t>
+          <t>為了幫老伴添購新衣 中風的她這樣做...</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2019-08-07 17:51</t>
+          <t>2019-08-08 10:41</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">我國法務部長蔡清祥與諾魯共和國司法及國境管理部長David Adeang簽署司法互助條約。（記者黃捷攝）
-〔記者黃捷／台北報導〕台灣跨國司法互助又一里程碑！我國法務部繼今年6月與波蘭簽署司法互助協定後，今再與諾魯共和國簽署「中華民國（臺灣）政府與諾魯共和國刑事司法互助條約」，我國先前已與美國、中國、菲律賓、南非及波蘭簽署，此次是第6個刑事司法互助條約及協定。
-本條約歷經2年磋商，在我國法務部、外交部及駐諾魯大使館的共同努力下，雙方終獲致簽署共識，簽約儀式今在法務部2樓文史陳列館舉行，我國由法務部長蔡清祥出面，諾魯則由其司法及國境管理部長David Adeang代表簽約。
-法務部指出，本條約生效後，我國與諾魯將可在刑事調查、追訴、法院審理、犯罪防制等程序中，相互提供協助，範圍包括取得證言供述、文書證據、確認關係人所在及身分、文書送達、確認物之性質及所在、執行搜索及扣押、協助凍結扣押及執行罰金，以及其他任何符合該受請求國法律之協助。
-此外，未來我國與諾魯也可透過視訊詢問，或准許請求方人員在證人、被告陳述時在場，依受請求方同意的方式詢問，使兩國辦案人員可以組成實質聯合調查團隊（Joint Investigation Team），以科技方式進行偵查，大幅縮減跨境取證耗費的時間及勞力，提升犯罪偵查效率，將可有效遏阻太平洋區域內，甚而全球的運毒、電信詐欺等跨境犯罪。
-David Adeang今致詞表示，很感謝台灣外交部、法務部等單位的努力，諾魯目前也正面臨跨國毒品、洗錢、組織犯罪的問題，確有與台灣司法互助的需求，本次簽約意義重大。
-我國法務部長蔡清祥與諾魯共和國司法及國境管理部長David Adeang簽署司法互助條約。（記者黃捷攝）
+          <t xml:space="preserve">〔記者洪定宏／高雄報導〕74歲陳姓老婦有輕微中風及高血壓等慢性病，但為了幫丈夫添購新衣，她堅持拄著拐杖外出，卻因不耐天氣炎熱而跌倒，被警方送回家，所幸無礙。
+8月4日下午約3點，高雄市左營分局舊城派出所副所長周振宗及警員賴國煌獲報，指左營區勝利路及埤仔頭街口，有行動不便的老婦，身體不適跌倒，需要協助。
+員警到場得知，老婦住在果貿社區，竟在下午艷陽天，拄著拐杖，徒步走了約1.5公里，到勝利路及埤仔頭街口，幫丈夫買衣服。
+老婦不耐高溫，體力不支而跌倒，熱心的路人攙扶她至路邊休息並報案。
+警方通報消防局救護員到場，所幸老婦無大礙，但她無法清楚表達身分，所以透過人臉辨識系統查出身分及住家地址，開警車送她回家。
+老婦的女兒表示，母親有輕微中風及高血壓等慢性病，但仍堅持外出，讓家人很擔心，不會再讓母親單獨出門。
+警員賴國煌送老婦回家。（記者洪定宏翻攝）
 </t>
         </is>
       </c>
@@ -575,30 +569,25 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>偷走金門古墓石獅！2嫌心神不寧搬回 鬼月被逮</t>
+          <t>女警髮長過肩的女警必須梳髮髻！苗縣警局長新規定惹誤會</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2019-08-07 17:24</t>
+          <t>2019-08-08 10:40</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">金門陳健墓旁的石獅失而復得，陳健墓所在的金沙鎮光前里里長黃文成（右一），陪同陽翟陳氏宗親會理事長陳偉陽（右二）、耆老陳朝來（右三）等人前往縣警局認領石獅。（記者吳正庭攝）
-〔記者吳正庭／金門報導〕金門國家級古蹟「陳健墓」旁1隻近100公斤的石獅遭竊，引起民間及文資單位重視，金門警方專案小組今天宣布破案，李姓、王姓兩名竊嫌疑於偷走石獅後心神不寧，主動將石獅搬回墓園入口處，警方循線將兩嫌逮捕，全案依觸犯刑法竊盜罪及文化資產保存法罪嫌移送金門地檢署偵辦。
-「陳健墓」是金門明朝進士陳健的衣冠塚，興建於距今463年前，保有金門最完整的明代文官墓型制，2000年重修後依文化資產保存法列為國定古蹟，座落於金沙鎮東珩村郊，平時人煙不多。
-巧合的是，金門縣前文化局長呂坤和為準備下學期在金門大學任教的課程，8月3日專程到陳健墓蒐集資料，一眼發現陳健墓左側石獅不翼而飛，右側石獅稍有移動跡象，他說，「獅子很重，1個人絕對抱不動」。
-呂坤和通知金門縣文資委員、金門大學建築系教授曾逸仁，轉知陳健墓管理單位的陽翟陳氏宗親會理事長陳偉陽，向轄區金湖分局報案並趕赴現場查看；這起地區罕見的國家級古墓竊案，引起縣警局長張國雄高度重視，責成金湖分局與縣警局刑警大隊成立專案小組。
-金湖分局副分局長楊智銘說，金大文化研究團隊在7月24日曾到陳健墓拍照，確定當時石獅還在，警方據此縮小查察範圍，5日再到現場履勘，發現遭竊的石獅被棄置於墓園入口處，進一步過濾路口監視器，6日將兩嫌傳喚到案，確定石獅是李、王兩嫌所竊，竊走後擔心東窗事發，心神不寧，趁四下無人將石獅送回墓園入口處即離開，警方將全案移送地檢署偵辦。
-得知警方迅速破案，陳健墓所在的金沙鎮光前里里長黃文成陪同陳偉陽、耆老陳朝來等人到金湖分局認領石獅，感謝警方積極辦案，他們說，10日會將石獅子安奉回古墓原位，縣議會副議長周子傑聞訊也趕到警局慰問員警辛勞。
-黃文成說，石獅雖是古墓2000年重修後仿明代的復刻版，但每隻也有將近100公斤重，能在這麼短時間失而復得，「是神明顯靈」，他也說明，兩竊嫌並非正在墓地附近施工的工人，外界不要誤會。
-陳朝來得知竊嫌抓到了，氣得直呼「可惡」，認為警方應該公布竊嫌身分，讓竊嫌知道羞恥。陳偉陽說，建議文資單位在全縣古蹟，添置監視防盜系統，確保歷史文物不要再讓宵小有覬覦的機會。
-縣文化局文化資產科科長郭朝暉說，古墓的建置有一定的風水規制，也有相關禁忌，偷走墓旁的石獅就是盜墓行為。古墓石獅遭竊，坊間有人訝異「連這也敢偷？」破案消息傳出，也有人說，能在農曆七月快速破案，似乎冥冥中自有安排。
-「陳健墓」是金門明朝進士陳健的衣冠塜，興建於距今463年，保有金門最完整的明代文官墓型制。（記者吳正庭攝）
-金湖分局副分局長楊智銘所比的位置，就是「陳健墓」旁失竊石獅擺放的地方。（記者吳正庭攝）
-「陳健墓」兩側有好幾對石獅，遭竊的是左墓手處的石獅，由警方拍照，相對的另一側石獅並未遭竊。（記者吳正庭攝）
-金門陳健墓旁的石獅失而復得，金門縣議會副議長周子傑（左二）與金沙鎮光前里里長黃文成（右一）、陽翟陳氏宗親會理事長陳偉陽（左一）、耆老陳朝來（左三）等人前往金湖分局感謝副分局長楊智銘（右二），向警方破案辛勞表達敬意。（記者吳正庭攝）
+          <t xml:space="preserve">苗栗縣警局請女警在攻勢、路、臨檢勤務時將馬尾（圖右）收於勤務帽內（圖左），避免因馬尾外露有潛在不可預期的危險。（記者張勳騰攝）
+〔記者張勳騰／苗栗報導〕苗栗縣警局長翁群能上月22日剛上任，臉書社團「靠北警察」PO文投訴，翁群能新官上任三把火，第一把火莫名其妙的直接燒到女警身上，要求髮長過肩的女警必須梳髮髻，質疑根本是本末倒置！
+苗栗縣警局副局長陳明宏回應，這項要求是局長翁群能基於關心女警執勤安全，因此特別提醒執行攻勢勤務、路、臨檢勤務時，請女警將馬尾收於勤務帽內，避免因馬尾外露有潛在不可預期的危險。
+有員警在「靠北警察」PO文，指局長翁群能認為綁馬尾不安全，這說法早遭大家破解不說，試問女警出勤騎乘機車，但髮髻將使女警戴安全帽時，安全帽無法到位的問題不是更嚴重？更別提穿脫安全帽後，髮髻早已散亂無比！髮髻梳理又費時，披頭散髮又蓬頭垢面真的是警察職場上大家樂見的嗎？
+PO文員警投訴，身為女警，女警並不會不注重勤間安危，是沒有看過競技女運動員嗎？她們是馬尾還是髮髻？相對的他們更需要合理的身體自主權，因為尚未發生的危害，女警曝露在常態的危險環境中（騎乘機車時，髮髻使安全帽無法發揮妥當的保護作用），根本本末倒置！
+陳明宏指出，由於這項命令傳達時部分女警誤會禁止綁馬尾或要梳髮髻，只要在不影響執勤效率、安全、整潔形下，縣警局對女警的髮式尊重其自主權。
+陳明宏說，翁局長上任後，相當注重員警執勤安全，甚至要求添購相關設備，並請幹部適度提醒督促，執勤時應有敵情意識，以防患於未然。對於此案因分局等單位傳訊出現落差，將立即加強詳實說明讓員警理解。
+苗栗縣警局副局長陳明宏回應，縣警局對女警的髮式尊重其自主權。（記者張勳騰攝）
+有苗栗縣女警「靠北警察」PO文投訴指新科局長要求過肩的女警必須梳髮髻，引發熱議。（翻攝靠北警察）
 </t>
         </is>
       </c>
@@ -606,23 +595,23 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>宜蘭漁船解體6人失蹤 船長家屬盼申請國家搜救</t>
+          <t>男自稱茅山道士缺錢 社區主委被當肥羊詐財</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2019-08-07 17:18</t>
+          <t>2019-08-08 10:33</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">家屬在頭城區漁會尋求協助。（記者林敬倫攝）
-［記者林敬倫／宜蘭報導〕宜蘭縣頭城籍漁船「全億財一號」本月2日出港，未在4日如期返回烏石港，據了解，該漁船疑似遭商船撞擊解體，殘骸已漂到釣魚台外海，賴姓台籍船長及5名印尼籍漁工共6人失聯；家屬希望，不論結果是好、是壞，希望能申請國家搜救，儘快找到失蹤的人。
-68.49噸級的全億財一號漁船，原訂4日返抵頭城鎮烏石港，家屬等不到漁船進港，也無法與船員取得聯繫，急得像熱鍋上螞蟻，據了解，該船作業區域在北緯24度32.3分、東經122度06.3分，即蘇澳東方12浬處，已由海巡署派艇協尋。
-基隆艦接獲通報後出海搜尋，今天在釣魚台北方24浬處海面，發現漁船殘骸，派員打撈調查船籍，確認是失蹤漁船，由於利奇馬颱風來襲，增加搜救困難度。
-據了解，漁船疑似是與商船相撞，才會造成解體，66歲賴姓船長是大溪人，賴姓船長妻子、兒子現正焦急的在頭城區漁會尋求幫忙；賴姓船長的女兒說，不管結果是好是壞，都希望能找到賴姓船長，近期颱風又要來，會增加搜救難度，希望能申請國家搜救，增加搜救效率，已向漁業電台求助。
-賴姓船長女兒質疑，船主通報的時間真的太慢，原本4日漁船就要回港，但一直到昨天下午1點，船主因為其他漁民在說，賴姓船長的船怎麼還沒回來，才向漁業電台報案，家屬當天3點才獲知，根本錯過黃金救援時間。
-漁船解體照片。（記者林敬倫翻攝）
+          <t xml:space="preserve">［記者楊政郡／台中報導］54歲李男曾以命理、投資等理由詐財被判刑，2017年搬到豐原某社區，向劉姓主委誆稱他是茅山道士可解厄，也是中醫師，想開診所缺資金，劉某同意投資投入76萬後，李男天天傳掛號及看診人數，營造生意業績好的假象，3個月過去了，卻連診所住址都說不出來，李男被問急了，退15萬給劉男，後來開支票應付，法官審理時辯稱這是借貸，那些數字是在報六合彩明牌，法官以詐欺罪累犯判7月徒刑。
+判決書指出，李男有妨害性自主及詐欺前科，2017年搬到豐原區某社區，認識劉姓主委，向其誆稱他是中醫師，想找人合夥在高雄開診所，但缺乏資金，他已找兩醫師及1位會計人員，包括他自己各投資100萬，還缺一人，劉某同意投資，但稱一時拿不出100萬那麼多。
+李男說他先墊，讓劉慢慢籌錢，從2017年12月至2018年元月11日，劉總計交付76萬元，但每次詢問診所地址，李總是推托，還天天傳掛號、看診人數來取信劉某，如「一診廖68、二診吳39」、「高雄91、岡山89」等，但被問急了，主動退15萬給劉，劉妻機警懷疑有問題，積極要求退款，李開61萬支票應付，後來又陸續還了22萬，再來就還不出來，報案處理後查出上情。
+劉某說，2017年被告剛搬來社區，到他家拜訪，說他是茅山道士可替人消災解厄，孫子晚上睡覺會哭，李說可幫忙收驚祭改，後來說他有中醫師執照，要找人合夥開診所等等。
+李某到案辯稱這是私人借貸，沒說要開中醫診所，而簡訊內數字是報明牌不是投資。
+法官認為被害人指述明確，還有其他證人佐證，且是累犯，判處7月徒刑。
+劉某同意投資76萬後，李男營造生意業績好的假象，卻連診所住址都說不出來，李男被問急了，退15萬給劉男，後來開支票應付，法官以詐欺罪累犯判7月徒刑。（資料照）
 </t>
         </is>
       </c>
@@ -630,18 +619,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>少年半夜被阿姨罰跪浴缸 3分鐘後溺斃</t>
+          <t>遭爆情人節偷吃、妻挺肚離家 彰化帥議員電話回應了</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2019-08-07 17:11</t>
+          <t>2019-08-08 09:39</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔記者王宣晴／新北報導〕15歲的周姓少年與父親和10歲的妹妹借住在39歲的阿姨位於新北市三重自強路四段的住處，少年今晨因情緒躁動不肯休息，被阿姨罰跪，但不斷反抗，情緒激動，阿姨於是要求少年跪在放滿水的浴缸中冷靜，隨後離開浴室抽菸，3分鐘後卻發現少年溺斃在浴缸內，嚇得趕緊報案急救，但少年送醫後仍不治，檢警介入調查，目前依過失致死罪嫌將父親、阿姨送辦，並持續調查少年溺斃原因。
-新北市三重驚傳少年被管教時溺斃。（記者王宣晴攝）
+          <t xml:space="preserve">無黨籍彰化縣議員洪柏葳（右），去年首度參選就當選，圖為去年就職儀式，他出席參加正副議長投票。（記者張聰秋資料照）
+相關新聞：老婆懷孕8個月 彰縣議員被爆七夕同框傳播妹示愛
+〔記者張聰秋／彰化報導〕彰化縣無黨籍議員洪柏葳遭爆料趁老婆懷孕時，於昨天七夕情人節在外劈腿搞小三，甚至被PO出洪與該名女子狀似親暱的照片，此事在網路傳開後引發熱議，並有大批網友跑到洪的臉書洗版砲轟，妻子挺肚負氣離家。
+洪柏葳電話受訪時坦言自己喝醉，但不認識對方也無性行為，與妻子已協議離婚中，認為遭刻意截圖爆料。稍後他還將親自出面澄清。
+有網友自稱是彰化縣議員洪柏葳妻子的妹妹，在《爆料公社》PO文爆料指控，洪疑似趁老婆懷孕8個月的時候在外面搞小三，昨天七夕情人節時甚至PO出兩人親親照片高調示愛。
+據網友PO文內容指出，洪對此辯稱該名女子是傳播妹，並指是「喝醉手機被朋友拿去亂用，那女孩我不認識，已經刪除了！」但妻子並不採信洪的說詞，並質疑「到底是什麼朋友能起鬨要求親她？」「到底是什麼關係可以輕易拿到手機在臉書跟微信貼文？」且洪還丟下一句「抓姦要在床」、「妳不信我能怎樣」等，讓妻子直呼「我替我的孩子（感到）真的很難過，快出生了卻發現自己的爸爸做這種事！」
 </t>
         </is>
       </c>
@@ -649,27 +642,20 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>宜蘭載6船員漁船失聯3天  釣魚台海域發現不明殘骸</t>
+          <t>北市仁愛醫院旁巷弄 路人驚見塑膠袋內藏嬰屍</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2019-08-07 17:00</t>
+          <t>2019-08-08 09:08</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">釣魚台北方24浬海面發現漁船殘骸在海面上漂浮，疑似就是頭城籍的全億財1號，日本海上保安廳已透過海巡署查證。（記者江志雄翻攝）
-首次上稿 14:21更新時間 17:00
-［記者江志雄／宜蘭報導］宜蘭縣頭城籍漁船全億財一號，未如期返回烏石港無故失聯，台籍船長及5名印尼漁工共6人生死未卜，就在此時，釣魚台北方24浬海域，發現疑似「全」船殘骸及救生衣；林姓船東質疑漁船遭大型商船撞擊而肢離破碎。
-68.49噸的全億財一號2日下午從烏石港出海作業，預定前往東部外海捕捉大目鰱，船上有台籍68歲賴姓船長及5名印尼漁工，原訂4日返港，但漁船逾期未歸，也無法與船員取得聯繫，加上利奇馬颱風來襲，船長親友擔心船員安危，昨天下午去電蘇澳漁業電台請求協尋。
-漁業電台被告知，「全」船可能在北緯24度32分、東經122度06分一帶，即蘇澳東方12浬處作業，海巡署派600噸級基隆艦搜尋，昨晚9點多，日本海上保安廳卻在較北方的北緯26度7分、東經123度49分，相當於釣魚台北方24浬海面發現不明漁船殘骸和救生衣。
-昨晚9點多，日本海上保安廳把殘骸照片傳至我國的國家搜救指揮中心，再透過海巡署轉給「全」船船東辨認，漂浮海面救生衣，有標示「永再富」字樣，此乃全億財一號2008年前的船名，依照種種跡象研判是「全」船殘骸，受利奇馬颱風影響，釣魚釣海域風浪變大，增加搜救困難度。
-林姓船東說，日本海上保安廳所傳照片看來，漁船幾乎解體沈入海中，不排除遭大型商船撞擊，殘骸隨著海流漂到釣魚台北方海面，發現處應非事發第一現場，應針對相關疑點進一步釐清。
-「全」船預定出海作業2天後返港，這段期間未與岸上聯繫，蘇澳漁業電台也未接獲求救電話，船長親友察覺情況有異，去電漁業電台救助；頭城區漁會總幹事陳秀暖說，希望6名船員被友船救起平安上岸，後續問題漁會將提供必要協助。
-頭城籍漁船全億財1號漁船失聯，6名船員生死未卜。（記者江志雄翻攝）
-釣魚台北方24浬處海面，發現疑似全億財一號漁船殘骸，（記者江志雄翻攝）
-釣魚台北方24浬海面發現疑似全億財一號漁船殘骸，船體殘骸旁有救生衣。（記者江志雄翻攝）
+          <t xml:space="preserve">〔記者姚岳宏／台北報導〕今天父親節，卻發生嬰屍遭棄置悲劇！清晨時分有名婦人路過台北市仁愛醫院旁巷弄，發現路邊有個灰白色的塑膠袋，她好奇打開一看，竟發現裡面是具嬰屍，嚇得趕緊向一旁醫院駐衛警反映通報警方。
+轄區警方到場初步研判，尚無法確認嬰兒是早夭或遭遺棄致死，趕緊通報鑑識中心派人前往採證，正根據附近監視器畫面追查遺留塑膠袋的民眾以釐清案情。
+警方在仁愛醫院旁巷弄發現嬰屍，通知鑑識人員現場採證中。（記者姚岳宏翻攝）
+警方在仁愛醫院旁巷弄發現嬰屍，通知鑑識人員現場採證中。（記者姚岳宏翻攝）
 </t>
         </is>
       </c>
@@ -677,24 +663,24 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>獨家》出主意跟監新光公主 華南王子律師和事務所判賠25萬元確定</t>
+          <t>老婆懷孕8個月 彰縣議員被爆七夕同框傳播妹示愛</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2019-08-07 16:58</t>
+          <t>2019-08-08 09:06</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔記者楊國文／台北報導〕新光金董事長吳東進長女吳欣盈與華南金第三代長子林知延豪門婚變，吳欣盈不滿林知延找徵信社人員跟監，還在她的座車偷裝GPS衛星定位，除控告林涉犯妨害秘密罪，也認為林的律師劉宗欣提出跟監等主意，損害其權益，提告求償6千萬元，刑事部分林知延被高院判決拘役20天、可易科罰金；民事部分，高等法院今下午判劉宗欣與他合夥經營的國際通商法律事務所應連帶賠償25萬元，全案確定。
-吳欣盈（41歲）於2011年嫁給林知延（50歲），這門新光公主與華南公子的豪門聯姻曾轟動一時。2013年9月，吳欣盈懷疑遭人跟蹤偷拍，檢查其座車後發現竟被偷偷安裝GPS追蹤器，氣得怒告林知延等人；台北地檢署2014年依妨害秘密、違反個資法等罪，起訴林知延、委任律師劉宗欣和2名徵信業者，另外吳也對替林知延出跟蹤主意的律師劉宗欣、國際通商法律事務所提告，要求高達6千萬元的精神損害賠償。
-吳欣盈方面指控，律師劉宗欣主動聯繫徵信社，到劉擔任合夥人的國際通商法務事務所商談，並簽訂委託契約，並交給徵信業者吳欣盈的照片，指示持續跟監、跟拍，並即時回報跟監狀況，業者並兩度在該法律事務所聽取跟監結果、交付跟拍方照片、錄影光碟等物，已侵害其隱私權，甚至導致她因此患有憂鬱症，必須吃安眠藥才能入眠，新光醫院也診斷吳女患有精神方面疾病。
-律師劉宗欣則反駁，當時林知延獲報吳女的司機開車太快，並發現司機有吸毒前科，因此委託他找徵信社跟隨、並加裝GPS，是為了保護她，更何況司機出勤後都會回報行程，所做的一切都是為了「保護吳欣盈」，並無刺探隱私一事。
-刑事部分，台北地院審理認為，本案與妨害秘密罪構成要件不同，GPS不具有錄音功能，本案車輛「車內活動」部分，不具有竊錄的問題，該車輛為大永公司所有，並非專屬供吳欣盈所有，不符合妨害秘密要件，判林知延等人無罪。高等法院則認為，GPS具記錄車輛行跡等功能，已侵犯「他人非公開活動」犯行，今年4月判決逆轉，依竊錄非公開活動罪，改判林知延、劉宗欣各拘役20天，可易科罰金2萬元，徵信業者、員工分別判拘役50、30天，可各易科罰金5、3萬元，均可上訴。
-民事求償方面，台北地院認定劉侵害吳女隱私權情節重大，判劉和國際通商法律事務所連帶賠償吳女35萬元。劉和國際通商法律事務所不服，上訴高等法院，高院今下午改判劉和該事務所須連帶賠償25萬元確定。
-此外，林知延訴請離婚案，高院今年初改判准離婚，吳欣盈友人3月間表示吳女放棄上訴，已確定離婚。
-新光金公主吳欣盈與華南金王子林知延豪門婚變，出跟監主意的林知延委任律師劉宗欣和事務所判賠25萬元確定。（本報資料合成照）
+          <t xml:space="preserve">有網友在臉書爆料，指彰化縣無黨籍議員洪柏葳趁老婆懷孕時在外面劈腿搞小三，PO文網友自稱是洪柏葳老婆的妹妹。（圖擷自爆料公社）
+相關新聞：遭爆情人節偷吃、妻挺肚離家 彰化帥議員電話回應了
+〔即時新聞／綜合報導〕有網友在臉書爆料，指彰化縣無黨籍議員洪柏葳趁老婆懷孕時在外面劈腿搞小三，PO文網友自稱是洪柏葳老婆的妹妹，並批洪在七夕情人節還PO出與小三的親親照片高調示愛，此事在網路傳開後引發一陣熱議，並有大批網友跑到洪的臉書洗版。
+有網友自稱是彰化縣無黨籍議員洪柏葳妻子的妹妹，並在《爆料公社》PO文爆料指控，洪疑似趁老婆懷孕8個月的時候在外面搞小三，七夕情人節時甚至PO出兩人親親照片高調示愛，據網友PO文內容指出，洪對此辯稱該名女子是傳播妹，並指是「喝醉手機被朋友拿去亂用，那女孩我不認識，已經刪除了！」，但妻子並不採信洪的說詞，並質疑「到底是什麼朋友能起鬨要求親她？」、「到底是什麼關係可以輕易拿到手機在臉書跟微信貼文？」且洪還丟下一句「抓姦要在床」、「妳不信我能怎樣」等，讓妻子直呼「我替我的孩子（感到）真的很難過，快出生了卻發現自己的爸爸做這種事！」
+PO文網友也指出，目前洪柏葳不僅不接電話，甚至還對她們的臉書進行封鎖，質疑洪的態度不像是被起鬨被誤會的人，因此才氣得在臉書PO文公開這樁醜事。其他網友看到後也紛紛跑到洪柏葳臉書留言，除要他給個交代，也怒批「帶小三也是為人民服務嗎？」、「騎人節跟小三過得開心嗎？」、「枉費老婆準備替你生小孩」、「議員還真好當，妻小不顧跑去外面找小三」、「議員，老婆大肚子，忍不住嗎？」等。
+據《爆料公社》小編指出，此事在網路引發軒然大波後，也有自稱是洪柏葳議員助理的人去訊，稱洪與該女子只是第一次見面，並指該女子是南部屏東的傳播，在酒後三巡以及朋友的起鬨下拍照上傳，但酒醒後就立刻撤下了！
+有網友在臉書爆料，指彰化縣無黨籍議員洪柏葳趁老婆懷孕時在外面劈腿搞小三，PO文網友自稱是洪柏葳老婆的妹妹。（圖擷自爆料公社）
+《爆料公社》小編指出，有自稱是洪柏葳議員助理的人去訊，稱洪與該女子只是第一次見面，當時只是在酒後三巡以及朋友的起鬨下拍照上傳（圖擷自爆料公社）
 </t>
         </is>
       </c>
@@ -702,21 +688,21 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>日籍空姐來台玩掉手機急報警 全因有這些「機密資料」</t>
+          <t>嘉義市早餐店罐裝瓦斯閃爆 2人燒燙傷送醫</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2019-08-07 16:48</t>
+          <t>2019-08-08 08:58</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">警方幫R小姐（右2）找回手機。（記者王冠仁翻攝）
-〔記者王冠仁／台北報導〕身材窈窕、面容姣好的日本籍R小姐，在日本一家知名航空公司擔任空服員，經常往返台日，但卻從沒有到台遊玩。她日前請假，安排家人一起來台北遊玩，搭計程車要返回下榻飯店時卻不慎將手機遺落在車上；幸虧警方調閱監視器畫面，火速幫她找回手機，不僅幫她保住手機內的機密資料，也完成一場國民外交。
-警方表示，日本籍R小姐日前和家人一起來台北旅遊，他們入住台北市西門町一家旅館。R小姐與家人外出遊玩，搭計程車要返回飯店時，卻不小心將手機遺忘在計程車上；R返回飯店後才發現手機遺失，由於手機內有許多工作機密資料、和家人在台灣的旅遊照片，她心急如焚，趕緊跑到派出所向警方報案。
-中正第一分局忠孝西路派出所警員林庭緯了解案情原委後，透過英文及日語翻譯，確認R小姐上、下車地點，再依據家人的手機照片推斷在西門町搭車時間，經調閱監視器畫面交叉比對後，循線找到該輛計程車；警方聯繫司機，順利找回手機。
-R小姐對台灣人拾物不昧的精神讚許不已，同時對林員留下深刻印象，大讚台灣波麗士細心又專業。
+          <t xml:space="preserve">嘉義市一間早餐店今發生卡式罐裝瓦斯閃爆、燙傷2人意外。（記者王善嬿翻攝）
+〔記者王善嬿／嘉義報導〕嘉義市消防局今上午5點48分左右獲報，軍輝路一間早餐店的卡式罐裝瓦斯，疑因掉落地上洩漏、產生火花引燃，突然爆炸，導致一男、一女燒燙傷，其中55歲賴姓女子有2%到4%燒燙傷，經給予濕紗覆蓋緊急救護後，送醫院急救治療。
+今晨瓦斯閃爆後，女子坐在地上哀嚎，附近店家業者協助幫女子沖水急救，消防員獲報趕到現場，經評估，傷者雙前臂及雙小腿各有2到4%二度燒燙傷，另一名18歲吳姓男店員，有左前臂一度燒燙傷，兩人意識清楚及生命徵象穩定。
+據老闆表示，2名員工在早餐店工作，一瓶放在攤位前的卡式罐裝瓦斯，不慎掉落地上，因而洩漏並產生火花閃爆，因他們都站在屋外攤位前，未在屋內，未釀成更嚴重的火警意外。
+掉落地上的罐裝瓦斯洩漏，導致發生火花引燃。（記者王善嬿翻攝）
 </t>
         </is>
       </c>
@@ -724,20 +710,25 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>涉私賣「第四級毒品」管制安眠藥 高雄醫師8萬元交保</t>
+          <t>嚇壞了！溪頭加油站被亂入露營 豎牌警告、入夜拉封鎖線</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2019-08-07 16:20</t>
+          <t>2019-08-08 08:15</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔記者黃佳琳／高雄報導〕高市衛生局日前清查轄內診所管制藥品流量時，發現一家診所龔姓醫師開給病患的藥品中，竟有不符合病情使用的第四級管制藥品佐沛眠（Zolpidem），也是列管的第四級毒品，案子移送橋檢調查後，檢察官認為龔姓醫師涉嫌販毒，訊後諭令8萬元交保。
-橋檢指出，龔姓醫師明知含有佐沛眠（Zolpidem）成分的安眠藥是第四級管制藥品，具有鎮靜安眠效果，並有成癮性及危害性，除正當醫療目的外不得使用管制藥品；但龔姓醫師從2015年起，用每顆20元至30元不等之價格，以自費方式提供予民眾購買，數量疑有數千顆以上。
-檢方5日指揮警方會同高雄市衛生局人員到診所扣得相關病歷、藥本及藥品樣本等物，並陸續傳喚該診所龔姓醫師、藥師、病患共10人到案說明。橋檢指出，根據病歷資料來看，部分求診病患並不需要使用含有佐沛眠（Zolpidem）成分的安眠藥，但龔姓醫師仍私下販售，已違反醫師法和管制藥品管理條例，因此訊後認定疑有販毒情事，將深入追查流向及數量。
-高雄傳出有醫師私下販售管制安眠藥品，檢方清查認定涉販毒。（記者黃佳琳翻攝）
+          <t xml:space="preserve">中油直營的南投縣溪頭加油站，是溪頭風景區中唯一的加油站。（記者謝介裕攝）
+〔記者謝介裕／南投報導〕中油直營的南投縣溪頭加油站，7月21日被本報獨家披露打烊後，遭露營族亂入淪為露營區，潛藏火警爆炸危機後，警方及中油便火速展開「補破網」工作，除了豎立禁止露營、炊煮警示牌，以及下班後站區拉上封鎖線以外，也加強稽查、巡邏工作，避免加油站露營亂象重演。
+南投縣鹿谷鄉因溪頭、杉林溪、妖怪村等風景據點良多，素有「台灣小瑞士」美名，尤其，暑假以來，氣溫不斷飆高，更吸引絡繹不絕的遊客上山避暑遊玩。
+而「中油溪頭加油站」則是溪頭風景區裡頭唯一的加油站，緊鄰的台大實驗林管處溪頭自然教育園區，雖然設有合法的露營區，但因租用1頂露營帳台，1天的費用為600元；每輛露營車1天的泊車費同樣也須600元，合計1天的露營成本就達1200元。
+在此前提下，部分遊客為了節省開銷，遂趁加油站下午6時打烊後，罔顧「禁止停車」、「嚴禁煙火」等標語及公告，直接將露營車開進加油站內停靠，並視為露營區般開始將車內的桌椅及相關食材搬下車，一邊談天說地、一邊泡茶或煮東西吃，萬一用火不慎引發火警，後果將難以設想﹗
+在本報報導該露營亂象後，警方及中油也意識到問題的嚴重性，並祭出因應之道，加油站人員在下班時，便會在站區拉起封鎖線，讓車輛無法進入，警方則排班加強巡邏工作，迄今半個月來，露營族違規露營情況已不復見，顯然已達到遏阻效果。
+溪頭商家及社區居民除肯定警方及加油站人員的付出以外，也希望能持之以恆，以免露營亂象死灰復燃，警方則表示，維護民眾居家安全是其天職，絕不可能只有3分鐘熱度，並呼籲愛好露營的民眾不要心存僥倖，否則，一旦違規闖入加油站露營事證明確，絕對依公共危險罪嫌從嚴究辦。
+中油直營的南投縣溪頭加油站，打烊後站區拉上封鎖線管制。（記者謝介裕攝）
+中油直營的南投縣溪頭加油站，警方豎立禁止露營、炊煮警示紅牌。（記者謝介裕攝）
 </t>
         </is>
       </c>
@@ -745,23 +736,27 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>猜猜我是誰？與老友玩笑開過頭 頭頸受傷被判賠</t>
+          <t>88宜蘭強震》轟隆！地震後驚傳轎車撞斷路燈 駕駛送醫急救</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2019-08-07 15:42</t>
+          <t>2019-08-08 08:11</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔記者王俊忠／台南報導〕去年2月間，1名楊姓男子在雜貨店巧遇彭姓老友，楊從後方將左手肘放在彭左肩上，並用左手掌抓住彭頭頂，用力壓住頭部和頸部，要彭「猜猜我是誰？」，但這玩笑開過頭，涉造成彭頸部扭傷、下背挫傷等，怒提傷害告訴與民事賠償。楊被判拘役50天，得易科罰金；民事部分，二審判醫藥與精神慰撫金賠償10萬2百元，全案確定，不得上訴。
-判決指出，楊男（60歲）於去年2月16日下午3點多，在台南市永康區1家雜貨店，巧遇舊識友人彭某（64歲），楊從彭的背後把左手肘放在彭的左肩上方，並用左手掌抓住彭頭頂處壓制頭部，使彭的頭頸部無法轉動察看是何人在其後方？造成彭頭、頸部受到壓制有頸扭傷、下背挫傷及頸部關節、韌帶扭傷。彭報警法辦楊男。刑事部分，一審法官依過失傷害罪判楊拘役50天、得易科罰金確定。
-民事部分，彭主張他受傷後無法工作，須長期治療復健，以他64歲年紀，可能終身無法復原。除一審判楊賠償10萬200元外，楊應再賠償祖傳秘方醫療費用和不能工作損失39萬9800元。
-楊上訴說，他用手壓彭頭、頸部，只是和彭開玩笑，彭還回頭笑得很開心，沒想到過兩天，彭聲稱無法工作並對他提告，他精神也很痛苦，一審判他賠精神慰撫金8萬元過高，應減為4萬元。
-台南高分院法官認為，一審法官認事用法並無不當，駁回兩人上訴，判楊要賠彭醫藥費2萬2百元、精神慰撫金8萬元，合計賠償10萬2百元。
-安南醫院骨科醫師方啟榮說，因個案年紀大，很可能有骨質疏鬆問題，或是本身脊椎有壓迫性骨折問題，如果突然用力將頸部與頭部往下壓，可能造成頸部受傷，類似頸部傷害以復健治療為主，輕微者做適當按摩熱敷可達到治療效果，不過如果有傷及神經或骨折的話，可能需要動手術治療。
-台南高分院民事庭判與老友玩笑開過頭、弄傷老友的楊姓男子要賠10萬200元確定。（資料照，記者王俊忠攝）
+          <t xml:space="preserve">今天清晨彰化市中央路陸橋驚傳一起轎車撞斷路燈的事故，整輛車翻覆嚴重毀損。（記者湯世名攝）
+〔記者湯世名／彰化報導〕轟隆！今天清晨全台劇烈地震後，彰化市正在施工中的中央路陸橋驚傳一起轎車撞斷路燈的事故，整輛車翻覆嚴重毀損，男性駕駛一度受困，消防局據報派員將他火速送醫急救，初步並無生命危險，事故發生原因仍待釐清。
+今天清晨5時30分全台傳出有感地震，彰化市震度高達3級，巧合的是，在彰化市中央路陸橋往彰化市區方向傳出一起嚴重車禍事故，1輛轎車在駛下陸橋後突然失控衝向中央分隔島，將1支路燈當場撞斷，轎車也翻覆在分隔島上，車尾、車頭都嚴重毀損，男性駕駛還一度受困，最後緩慢爬出車外坐在路邊待援，全身多處傷勢，消防局正巧就在附近，火速派員將他送醫急救，所幸無生命危險。
+警方不排除這起事故疑似男性駕駛車輛開太快釀禍，不過現場有民眾表示，清晨地震後就聽到門外傳來「轟隆」巨響，可能與地震脫不了干係。
+男性駕駛一度受困，消防局據報派員將他火速送醫急救，初步並無生命危險，事故發生原因仍待釐清。（記者湯世名攝）
+民眾表示，清晨地震後就聽到門外傳來「轟隆」巨響，可能與地震脫不了干係。。（記者湯世名攝）
+今天清晨彰化市中央路陸橋驚傳一起轎車撞斷路燈的事故，整輛車翻覆嚴重毀損。（記者湯世名攝）
+今天清晨彰化市中央路陸橋驚傳一起轎車撞斷路燈的事故，整輛車翻覆嚴重毀損。（記者湯世名攝）
+今天清晨彰化市中央路陸橋驚傳一起轎車撞斷路燈的事故，整輛車翻覆嚴重毀損。（記者湯世名攝）
+今天清晨彰化市中央路陸橋驚傳一起轎車撞斷路燈的事故，整輛車翻覆嚴重毀損。（記者湯世名攝）
+今天清晨彰化市中央路陸橋驚傳一起轎車撞斷路燈的事故，整輛車翻覆嚴重毀損。（記者湯世名攝）
 </t>
         </is>
       </c>
@@ -769,23 +764,21 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>「葉門將軍」甜言示愛 熟女陷情網險失23萬</t>
+          <t>違規騎腳踏車害機車騎士身亡 賠130萬元換自由</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2019-08-07 15:38</t>
+          <t>2019-08-08 08:01</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔記者鄭名翔／苗栗報導〕苗栗縣50歲巫姓女子透過通訊軟體LINE認識一名自稱葉門擔任將軍的男子，這名「葉門將軍」不斷對巫女噓寒問暖，甜言蜜語哄得巫女心花怒放，近日「葉門將軍」誆稱因當地政府規定領退休金須先付23萬元，向巫女借錢，巫女不疑有他立即趕赴郵局匯款，但行員察覺有異，立即報警聯手勸阻，才保住巫女的辛苦錢。
-竹南警方表示，昨日接獲竹南郵局曾姓行員報案，稱有民眾持23萬9100元欲匯款至香港中國銀行，察覺有異，警員楊翊珊、林榜鴻立即趕往現場了解。
-據巫女聲稱，近期在網路上結交一名自稱在葉門擔任將軍職務的男網友，兩人言談互動親密，「葉門將軍」時常將「寶貝」掛在嘴邊，無微不至的問候讓巫女不自覺陷入情網之中。
-而「葉門將軍」最近向巫女聲稱，因葉門政府規定領取退休金前須先支付7550元美金，金額龐大自己無法支付，希望巫女能幫忙，一往情深的巫女不疑有他，立即帶著新台幣23萬9100元到郵局要匯款，但行員察覺有異，與警方聯手勸阻，才讓巫女打消匯款念頭，但巫女仍堅信「葉門將軍」的存在，表示仍會與對方保持聯絡。
-適逢情人節，竹南分局長張文川今向竹南郵局頒發感謝狀，並藉此呼籲民眾秉持「見面再談，匯錢免談」的原則，不要被網友單方面的甜言蜜語沖昏頭，以免賠了錢財又傷心，有任何疑問可撥打165反詐騙諮詢專線查證。
-警方苦口婆心苦勸，才讓巫女打消匯款念頭。（記者鄭名翔翻攝）
-竹南分局長張文川（左）頒發感謝狀給竹南郵局（右），感謝行員機警阻詐。（記者鄭名翔翻攝）
+          <t xml:space="preserve">〔記者鮑建信／高雄報導〕高市李姓婦人夜間騎沒有反光設備的腳踏車，又未靠右側而行駛車道中間，結果遭機車自後追撞，騎士當場死亡，李婦因未和解又不認錯，經橋頭地院依過失致死罪，判處徒刑7月，後來以130萬元達成和解，被高雄高分院宣告緩刑2年定讞，換取自由、不用關。
+2017年8月23日晚上6點47分，被告李姓騎腳踏車沿高市燕巢區瓊興路由南往北方向行駛，結果被何姓男子所騎重型機車自後追撞，何因頭部等處受重創，經送醫開刀急救，3天後不治。
+橋頭地院調查，何未注意車前狀況固然有疏失，但李婦夜間騎腳踏車，卻未設置燈光及反光設備，且未靠路邊右側而行駛車道中間，同樣有過失，依過失致死罪，判處她有期徒刑徒刑7月要關。
+李婦不服上訴後，高雄高分院審理期間，李婦改口認錯，態度良好，並經調解委員會協調，已給付130萬元，並審酌她無業、無收入，家庭經濟狀況不佳，需靠打零工兒子扶養，仍處維持原來刑度，但宣告緩刑2年確定。
+李婦夜間騎腳踏車違規，賠償130萬元和解，被高雄高分院判處緩刑。示意圖。（資料照）
 </t>
         </is>
       </c>
@@ -793,23 +786,21 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>慰勞「警爸」父親節前夕基市警局長送蛋糕關懷同仁</t>
+          <t>高市再傳街頭暴力 運將慘被圍毆受傷流血</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2019-08-07 15:06</t>
+          <t>2019-08-08 07:50</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔記者林嘉東／基隆報導〕明天就是父親節。基隆市警察局長詹永茂為了感謝同仁辛勞，今天特別準備了宜蘭「亞典菓子工廠」年輪及蜂蜜蛋糕，分贈給每位警察爸爸們。
-詹永茂利用市警局週報時間，致贈給與會的各單位主管，在八八節前夕，祝與會同仁的家庭都甜甜蜜蜜、幸福美滿，工作上都順順利利。
-詹在致贈每位警察同仁蛋糕時，不忘關心同仁家庭狀況，叮嚀同仁工作之餘，要多陪陪家人，強調家庭的重要性。
-由於與會警察都是第一次收到來自局長的父親節禮物，覺得格外的開心。
-人事室主任黃艾狄表示，原來詹局長並不是只會工作要求，還會關心同仁的家庭，讓大家今年的父親節多了一份意外的驚喜，也會帶著局長的這份心意跟家人一起分享，同時也想對局長說：「謝謝您~父親節同樂！」
-明天就是父親節。為了感謝警察同仁辛勞，基隆市警察局長詹永茂（左）今天特別準備了宜蘭「亞典菓子工廠」年輪及蜂蜜蛋糕分贈給每位警察爸爸們。（記者林嘉東翻攝）
-明天就是父親節。為了感謝警察同仁辛勞，基隆市警察局長詹永茂（右）今天特別準備了宜蘭「亞典菓子工廠」年輪及蜂蜜蛋糕分贈給每位警察爸爸們。（記者林嘉東翻攝）
+          <t xml:space="preserve">〔記者陳文嬋／高雄報導〕高雄市賴姓運將近來與在護膚店上班女友有感情糾紛，今天凌晨4時賴到女友工作地點對面的店家喝酒，被女友的張姓老闆看見，上前警告他不要騷擾，雙方爆發口角衝突，張男找來4人助陣，分持鐵棒、徒手毆打賴男，造成賴男頭部受傷流血，警方依殺人未遂及公然聚眾鬥毆罪嫌送辦。
+警方調查，雙方爆發口角衝突，護膚店張姓老板撂人助陣，其中3人圍觀，張男動手毆打，陳男則持鐵棍痛毆賴姓運將，造成賴男受傷送醫救治，已無大礙。
+警方據報將張男等5人帶所調查，其中陳男以鐵棍毆打賴男頭部，有可能致人於死，警訊後將他依殺人未遂罪嫌送辦，現場5人均依刑法公然聚眾鬥毆罪嫌移送法辦。
+運將頭部受傷流血，救護人員幫忙擦藥。 （記者陳文嬋翻攝）
+警方帶回張姓老闆法辦。 （記者陳文嬋翻攝）
 </t>
         </is>
       </c>
@@ -817,21 +808,23 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>國1南下70.6公里4車連環撞  楊梅路段全線封閉</t>
+          <t>大叔1支名牌手機誘少女援交 事後還恐嚇散播性愛光碟鬧全校</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2019-08-07 15:01</t>
+          <t>2019-08-08 06:25</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">國道一號南下70.6公里處發生4貨車連環撞，國道警方到場排除事故。（國道警方提供）
-［記者許倬勛／桃園報導］國道中山高北南下70.6公里處，稍早傳出4輛貨車連環追撞車禍，其中一輛聯結車車頭嚴重毀損，2名貨車駕駛手、腳分別受輕微擦傷，幸經送醫治療無大礙，事故原因有待警方調查釐清。目前國一南下平面楊梅路段全線封閉。
-國道楊梅分隊指出，今日下午1點20分許，中山高南下70.6公里處發生4車連環撞事故，包括2輛聯結車、2輛小貨車，據推測應是煞車不及、大雨導致視線不明所致，2輛小貨車駕駛手、腳分別受輕微擦傷，受傷2人送往楊梅天成醫院治療。
-國道警方表示，目前國一南下平面楊梅路段全線封閉，主線車輛引導下楊梅交流道，桃園市楊梅分局派警力疏導下國一車輛繼續行駛台一線。
-國道一號南下70.6公里處發生4貨車連環撞，國道警方到場排除事故。（國道警方提供）
+          <t xml:space="preserve">大叔手機誘少女援交，還恐嚇散播性愛光碟。（示意圖）
+［記者楊政郡／台中報導］42歲廖男提供名牌手機1支給國中畢業準備上高中的「安安」（化名），對其有對價援交3次，但「安安」被家人發現，吳法出門援交，廖男竟多次傳訊逼迫、威脅要散佈性愛光碟，「我可慢慢等、等到你上高中時候全校都認識你也不錯」，少女父親提告，廖某賠償和解換取自由，台中地院判廖某10月徒刑，得易科罰金，援交專用手機沒收。
+據了解，少女「安安」國中畢業（滿14歲未滿16歲）就想獨立，出來援交，認識42歲廖男，廖男很體貼第一次見面援交，就贈送一支三星廠牌手機給她，讓她能後續連繫援交，3次有對價援交後，被「安安」父親發現大怒，逼問援交對象，而「安安」有口難言，在家人控制下也不敢再與廖某連繫。
+但廖某老牛吃嫩草，嘗出滋味，懷疑「安安」可能行動受限制，竟「想方設法」與「安安」取得聯繫，「安安」說：剛才姑姑說接到電話，警廣的要來找我，且知道什麼高中」，言下之意就是知道是廖某所為，但「安安」仍是拒絕見面。
+廖嫌越等越心急，又在臉書對話說「你未成年. . . 我可以慢慢等、等到你高中全校都認識你也不錯」、「 我就跟你講上高中我一定會讓你很難看. . . . 那你怎麼沒有跟你爸說，你跟男朋友做過，你未成年要不要告他. . . 你知道這種影片要給別人、別人都會看，且是高中生. . . 覺得很刺激、很有挑戰性，我一定要做，把你在某高中每個人都認識你」等語。
+法官說足認被告知悉「安安」就讀高中，年紀14歲以上未滿16歲。
+上述3次有對價姦淫幼女犯行及恐嚇1次，審酌被告已和解，將分期付賠償金，已取得原諒，合併判處10月徒刑、得易科罰金。
 </t>
         </is>
       </c>
@@ -839,21 +832,19 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>鬼月大膽標下凶宅 買家「倒賺」原因是…</t>
+          <t>88宜蘭強震》強震嚇醒民眾 新北同時獲報4起火警</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2019-08-07 14:45</t>
+          <t>2019-08-08 06:13</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔記者張瑞楨／台中報導〕法務部行政執行署台中分署昨天拍賣一棟二樓的透天厝，這棟房子的屋主父親，在屋內輕生身亡，亦即俗稱的凶宅，最後以425萬元決標。外界好奇得標的李姓婦人，拍下這棟房子的動機為何？據指出，李女是屋主的債權人，屋主欠她上千萬元，她拍下這棟房子，繳納的425萬元，扣除屋主欠繳的稅金10多萬元與拍賣手續費，這筆錢又會回到她手中，因此，她才會買下這棟凶宅。
-至於凶宅的林姓屋主，為何積欠李女上千萬元？為何沒有繳納僅10多萬元的房屋稅、地價稅與綜合所得稅？外傳是林姓屋主賭輸錢而欠債，但此說並未獲得官方證實，僅知屋主的父親「非自然」死於屋內。
-法務部行政執行署台中分署指出，這棟位於中市豐原區鎌村里的凶宅，是兩層樓建物，樓板總面積共為115平方公尺（近35坪），土地面積約15坪，第1次拍賣底價為662萬、第2次拍賣底價為530萬，這兩拍都流標，8月6日第3次拍賣，底價降低為425萬，開標後由李女以425萬元決標，因逢鬼月，又是凶宅，李女不畏傳統觀念拍下此建物，動機令人好奇。
-據指出，李女說，林姓屋主向她借上千萬元，把這棟房子抵押給她後，屋主已經失聯至今，她找不到屋主，屋主的財產又只剩這棟房子，她拍下房子之後，繳納的425萬元，扣除屋主積欠的稅金與拍賣手續費，這筆錢會回到她手上，她才會決定買下這棟凶宅。
-鬼月拍賣成交的房子，就位於此巷弄。（記者張瑞楨翻攝）
+          <t xml:space="preserve">新北市清晨4級有感地震，消防局同一時間獲報多起火警，並派出各外勤單位查報災情，目前沒有明顯災情。（擷取自中央氣象局官網）
+〔記者吳仁捷／新北報導〕今天上午5時28分傳出強震，不少民眾被強震及手機的國家防災簡訊警示聲嚇醒，中央氣象局公布東部海域發生規模6.0有感地震，最大震度宜蘭縣武塔6級，包括新北市等縣市都感感受到震度，新北市目前沒有明顯災情，但八里一處加油站、泰山、蘆洲等地都傳出火警及災情查看案件，消防單位陸續出勤，民眾餘悸猶存。
+強震後，新北市接獲4通報案電話，其中八里龍米路一處加油站旁傳出火警，但消防人車趕到，發現現場為因地震搖晃碰到路燈電線，出現火花，已無火煙、著火跡象；至於其餘火警也沒有大礙，新北消防局也派出外勤單位車輛查報災情。
 </t>
         </is>
       </c>
